--- a/gerber/COST CALc.xlsx
+++ b/gerber/COST CALc.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\kicad\tac5212_audio_board_single_ended\gerber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18144E70-2823-4B3C-A6DE-795DF7BB6D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59F79799-1F59-44BA-8946-EBEDD929F8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F311344-E2A0-4BDB-AFC6-141799A99E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0F311344-E2A0-4BDB-AFC6-141799A99E55}"/>
   </bookViews>
   <sheets>
     <sheet name="TAC5212" sheetId="1" r:id="rId1"/>
     <sheet name="TAC5112" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -448,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD41992-FDBF-4601-8D9C-6A592C82BEE1}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,34 +553,52 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <f>SUM(B2:B6)</f>
-        <v>26.768999999999998</v>
+        <f t="shared" ref="B7:G7" si="0">SUM(B2:B6)</f>
+        <v>36.768999999999998</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:G7" si="0">SUM(C2:C6)</f>
-        <v>13.516</v>
+        <f t="shared" si="0"/>
+        <v>23.515999999999998</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>9.2360000000000007</v>
+        <v>19.236000000000001</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>7.8439999999999994</v>
+        <v>17.844000000000001</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>7.6340000000000003</v>
+        <v>17.634</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>7.4939999999999998</v>
+        <v>17.494</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -587,28 +606,40 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <f>SUM(B7*4)</f>
-        <v>107.07599999999999</v>
+        <f t="shared" ref="B9:G9" si="1">SUM(B7*4)</f>
+        <v>147.07599999999999</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:G9" si="1">SUM(C7*4)</f>
-        <v>54.064</v>
+        <f t="shared" si="1"/>
+        <v>94.063999999999993</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>36.944000000000003</v>
+        <v>76.944000000000003</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>31.375999999999998</v>
+        <v>71.376000000000005</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>30.536000000000001</v>
+        <v>70.536000000000001</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>29.975999999999999</v>
+        <v>69.975999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>200</v>
+      </c>
+      <c r="B16">
+        <v>0.05</v>
+      </c>
+      <c r="C16">
+        <f>SUM(A16*B16)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -621,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E03F96C-20DE-4CA3-B1FE-49B6EE3A30AF}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,34 +754,52 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <f>SUM(B2:B6)</f>
-        <v>21.978000000000002</v>
+        <f t="shared" ref="B7:G7" si="0">SUM(B2:B6)</f>
+        <v>31.978000000000002</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:G7" si="0">SUM(C2:C6)</f>
-        <v>9.3179999999999996</v>
+        <f t="shared" si="0"/>
+        <v>19.317999999999998</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>6.2930000000000001</v>
+        <v>16.292999999999999</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>5.4719999999999995</v>
+        <v>15.472</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>5.2620000000000005</v>
+        <v>15.262</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>5.1219999999999999</v>
+        <v>15.122</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -758,28 +807,28 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <f>SUM(B7*4)</f>
-        <v>87.912000000000006</v>
+        <f t="shared" ref="B9:G9" si="1">SUM(B7*4)</f>
+        <v>127.91200000000001</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:G9" si="1">SUM(C7*4)</f>
-        <v>37.271999999999998</v>
+        <f t="shared" si="1"/>
+        <v>77.271999999999991</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>25.172000000000001</v>
+        <v>65.171999999999997</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>21.887999999999998</v>
+        <v>61.887999999999998</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>21.048000000000002</v>
+        <v>61.048000000000002</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>20.488</v>
+        <v>60.488</v>
       </c>
     </row>
   </sheetData>
